--- a/XX_Master_database/Productos Mansfield.xlsx
+++ b/XX_Master_database/Productos Mansfield.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{E45B4535-7667-4474-88D9-1D8CCBF59590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D24360-E901-45C3-B28E-3F7A97E97796}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{E45B4535-7667-4474-88D9-1D8CCBF59590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8BA342-F59E-482C-A15A-022869B520AF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="570" yWindow="570" windowWidth="19420" windowHeight="10420" xr2:uid="{972418CC-E33B-4616-97B4-BE94CE718AFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{972418CC-E33B-4616-97B4-BE94CE718AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="527">
   <si>
     <t>Fabricante</t>
   </si>
@@ -1600,14 +1600,33 @@
   </si>
   <si>
     <t>https://www.americanstandard-us.com/Toilets-Commercial/Yorkville-Two-Piece-Pressure-Assist-11-gpf-42-Lpf-Chair-Height-Back-Outlet-Elongated-EverClean-Toilet/WHITE-2878100020</t>
+  </si>
+  <si>
+    <t>Price Type</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Consumer price</t>
+  </si>
+  <si>
+    <t>Price list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1695,29 +1714,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E03A5B2A-1B72-42BE-A615-B4E96934B9A7}"/>
+    <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
     <cellStyle name="SAPMemberCell" xfId="3" xr:uid="{02B3FB56-2701-4742-8C0A-4447636D5574}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1741,24 +1769,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}" name="Tabla1" displayName="Tabla1" ref="A1:N119" totalsRowShown="0">
-  <autoFilter ref="A1:N119" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}" name="Tabla1" displayName="Tabla1" ref="A1:R119" totalsRowShown="0">
+  <autoFilter ref="A1:R119" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{CA438CAD-4677-4F28-BDA1-8DC4BDBF928A}" name="Fabricante"/>
     <tableColumn id="2" xr3:uid="{F90FAB3A-07FE-4523-9316-CA326BC0968E}" name="Homologo Mansfield"/>
     <tableColumn id="3" xr3:uid="{57A8E65B-9CDE-489A-8AFA-B5922C73073A}" name="Sku"/>
-    <tableColumn id="13" xr3:uid="{F2A7D1A8-0177-4F32-8E01-90ACBEB3EF19}" name="Type" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{F2A7D1A8-0177-4F32-8E01-90ACBEB3EF19}" name="Type" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5E41EB2C-E783-4413-8CE0-22BA7110B7EA}" name="Linea"/>
     <tableColumn id="5" xr3:uid="{40241D7B-B527-47D1-823D-52E90F62CC6A}" name="Rough in"/>
     <tableColumn id="6" xr3:uid="{A8FE9A51-EE2E-44E8-97CD-CBCF01FF7CB7}" name="Bowl Height"/>
     <tableColumn id="7" xr3:uid="{E39606D9-AA84-41F5-AC04-C6B5F1786DB2}" name="Asiento"/>
     <tableColumn id="12" xr3:uid="{C39C0074-885D-465C-AC79-C60CC83F3156}" name="Capacidad (Gpl)"/>
     <tableColumn id="8" xr3:uid="{3590C2F8-FDE9-4C20-B47A-0144A82B841A}" name="Descripcion"/>
-    <tableColumn id="14" xr3:uid="{646A3D25-A1B5-43BC-A00C-8CF3CE14515B}" name="Short Name" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{646A3D25-A1B5-43BC-A00C-8CF3CE14515B}" name="Short Name" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{C9B22122-27B6-4C85-A70A-7BDF0E5CAD8F}" name="Link"/>
     <tableColumn id="10" xr3:uid="{58F5E360-E332-4BCC-91D0-CD021102061E}" name="Url2"/>
-    <tableColumn id="11" xr3:uid="{FCDA2E3B-BF38-4CE0-82A0-314398B9A114}" name="Link2" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{FCDA2E3B-BF38-4CE0-82A0-314398B9A114}" name="Link2" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{9C48EDF8-B42B-452C-B745-16CF37D69070}" name="Price Type"/>
+    <tableColumn id="18" xr3:uid="{55451F16-5663-42E2-9746-6F77D7BD6755}" name="Price list"/>
+    <tableColumn id="16" xr3:uid="{F1017554-1A5F-438E-B5D9-7E46780AC78E}" name="Multiplier"/>
+    <tableColumn id="17" xr3:uid="{3ACD8531-85D0-4518-9E3C-02E8C12B9665}" name="Consumer price" dataDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2062,31 +2096,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E2E6B6-7DBF-44A9-91C4-E969D6191F18}">
-  <dimension ref="A1:X119"/>
+  <dimension ref="A1:AA119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" customWidth="1"/>
-    <col min="11" max="11" width="50.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6328125" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="11" max="11" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2129,8 +2167,20 @@
       <c r="N1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>521</v>
+      </c>
+      <c r="P1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>524</v>
+      </c>
+      <c r="R1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2171,40 +2221,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R2" t="str">
+      <c r="U2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>123010000</v>
       </c>
-      <c r="S2" t="str">
+      <c r="V2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>123010000</v>
       </c>
-      <c r="T2" t="str">
+      <c r="W2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U2" t="str">
+      <c r="X2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V2" t="str">
+      <c r="Y2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W2" t="str">
+      <c r="Z2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X2" t="str">
+      <c r="AA2" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Na</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2245,40 +2299,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R3" t="str">
+      <c r="U3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>160010007</v>
       </c>
-      <c r="S3" t="str">
+      <c r="V3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>160010007</v>
       </c>
-      <c r="T3" t="str">
+      <c r="W3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U3" t="str">
+      <c r="X3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 160</v>
       </c>
-      <c r="V3" t="str">
+      <c r="Y3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Z3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X3" t="str">
+      <c r="AA3" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2319,40 +2377,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R4" t="str">
+      <c r="U4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>173000000</v>
       </c>
-      <c r="S4" t="str">
+      <c r="V4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>173000000</v>
       </c>
-      <c r="T4" t="str">
+      <c r="W4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U4" t="str">
+      <c r="X4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 173</v>
       </c>
-      <c r="V4" t="str">
+      <c r="Y4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W4" t="str">
+      <c r="Z4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X4" t="str">
+      <c r="AA4" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2393,40 +2455,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R5" t="str">
+      <c r="U5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>160010037</v>
       </c>
-      <c r="S5" t="str">
+      <c r="V5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>160010037</v>
       </c>
-      <c r="T5" t="str">
+      <c r="W5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U5" t="str">
+      <c r="X5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 180</v>
       </c>
-      <c r="V5" t="str">
+      <c r="Y5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W5" t="str">
+      <c r="Z5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AA5" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2467,40 +2533,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R6" t="str">
+      <c r="U6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>386010000</v>
       </c>
-      <c r="S6" t="str">
+      <c r="V6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>386010000</v>
       </c>
-      <c r="T6" t="str">
+      <c r="W6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U6" t="str">
+      <c r="X6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V6" t="str">
+      <c r="Y6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W6" t="str">
+      <c r="Z6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X6" t="str">
+      <c r="AA6" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2541,40 +2611,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R7" t="str">
+      <c r="U7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130010007</v>
       </c>
-      <c r="S7" t="str">
+      <c r="V7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>130010007</v>
       </c>
-      <c r="T7" t="str">
+      <c r="W7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U7" t="str">
+      <c r="X7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 130</v>
       </c>
-      <c r="V7" t="str">
+      <c r="Y7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>14</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Z7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X7" t="str">
+      <c r="AA7" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2615,40 +2689,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R8" t="str">
+      <c r="U8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>131900001</v>
       </c>
-      <c r="S8" t="str">
+      <c r="V8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>131900001</v>
       </c>
-      <c r="T8" t="str">
+      <c r="W8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U8" t="str">
+      <c r="X8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Flushometer</v>
       </c>
-      <c r="V8" t="str">
+      <c r="Y8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Z8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X8" t="str">
+      <c r="AA8" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2689,40 +2767,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R9" t="str">
+      <c r="U9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135010007</v>
       </c>
-      <c r="S9" t="str">
+      <c r="V9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>135010007</v>
       </c>
-      <c r="T9" t="str">
+      <c r="W9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U9" t="str">
+      <c r="X9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 135</v>
       </c>
-      <c r="V9" t="str">
+      <c r="Y9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Z9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X9" t="str">
+      <c r="AA9" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2763,40 +2845,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R10" t="str">
+      <c r="U10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137210040</v>
       </c>
-      <c r="S10" t="str">
+      <c r="V10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>137210040</v>
       </c>
-      <c r="T10" t="str">
+      <c r="W10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U10" t="str">
+      <c r="X10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 137</v>
       </c>
-      <c r="V10" t="str">
+      <c r="Y10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Z10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X10" t="str">
+      <c r="AA10" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2837,40 +2923,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R11" t="str">
+      <c r="U11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>147010000</v>
       </c>
-      <c r="S11" t="str">
+      <c r="V11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>147010000</v>
       </c>
-      <c r="T11" t="str">
+      <c r="W11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U11" t="str">
+      <c r="X11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V11" t="str">
+      <c r="Y11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Z11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X11" t="str">
+      <c r="AA11" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2911,40 +3001,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R12" t="str">
+      <c r="U12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148010000</v>
       </c>
-      <c r="S12" t="str">
+      <c r="V12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>148010000</v>
       </c>
-      <c r="T12" t="str">
+      <c r="W12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U12" t="str">
+      <c r="X12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V12" t="str">
+      <c r="Y12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Z12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X12" t="str">
+      <c r="AA12" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2985,40 +3079,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R13" t="str">
+      <c r="U13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>151010000</v>
       </c>
-      <c r="S13" t="str">
+      <c r="V13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>151010000</v>
       </c>
-      <c r="T13" t="str">
+      <c r="W13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U13" t="str">
+      <c r="X13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V13" t="str">
+      <c r="Y13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>Rear Outlet</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Z13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X13" t="str">
+      <c r="AA13" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3059,40 +3157,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R14" t="str">
+      <c r="U14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>153010000</v>
       </c>
-      <c r="S14" t="str">
+      <c r="V14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>153010000</v>
       </c>
-      <c r="T14" t="str">
+      <c r="W14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U14" t="str">
+      <c r="X14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum One</v>
       </c>
-      <c r="V14" t="str">
+      <c r="Y14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Z14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X14" t="str">
+      <c r="AA14" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3133,40 +3235,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R15" t="str">
+      <c r="U15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>155010000</v>
       </c>
-      <c r="S15" t="str">
+      <c r="V15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>155010000</v>
       </c>
-      <c r="T15" t="str">
+      <c r="W15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U15" t="str">
+      <c r="X15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V15" t="str">
+      <c r="Y15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W15" t="str">
+      <c r="Z15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X15" t="str">
+      <c r="AA15" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -3207,40 +3313,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R16" t="str">
+      <c r="U16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>317310000</v>
       </c>
-      <c r="S16" t="str">
+      <c r="V16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>317310000</v>
       </c>
-      <c r="T16" t="str">
+      <c r="W16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U16" t="str">
+      <c r="X16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto 160</v>
       </c>
-      <c r="V16" t="str">
+      <c r="Y16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W16" t="str">
+      <c r="Z16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X16" t="str">
+      <c r="AA16" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -3281,40 +3391,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R17" t="str">
+      <c r="U17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>380010000</v>
       </c>
-      <c r="S17" t="str">
+      <c r="V17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>380010000</v>
       </c>
-      <c r="T17" t="str">
+      <c r="W17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U17" t="str">
+      <c r="X17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V17" t="str">
+      <c r="Y17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W17" t="str">
+      <c r="Z17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X17" t="str">
+      <c r="AA17" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -3355,40 +3469,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R18" t="str">
+      <c r="U18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384010000</v>
       </c>
-      <c r="S18" t="str">
+      <c r="V18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>384010000</v>
       </c>
-      <c r="T18" t="str">
+      <c r="W18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U18" t="str">
+      <c r="X18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V18" t="str">
+      <c r="Y18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Z18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X18" t="str">
+      <c r="AA18" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3429,40 +3547,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R19" t="str">
+      <c r="U19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>387010000</v>
       </c>
-      <c r="S19" t="str">
+      <c r="V19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>387010000</v>
       </c>
-      <c r="T19" t="str">
+      <c r="W19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U19" t="str">
+      <c r="X19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V19" t="str">
+      <c r="Y19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W19" t="str">
+      <c r="Z19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X19" t="str">
+      <c r="AA19" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -3503,40 +3625,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R20" t="str">
+      <c r="U20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>388010000</v>
       </c>
-      <c r="S20" t="str">
+      <c r="V20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>388010000</v>
       </c>
-      <c r="T20" t="str">
+      <c r="W20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U20" t="str">
+      <c r="X20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V20" t="str">
+      <c r="Y20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Z20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X20" t="str">
+      <c r="AA20" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -3577,40 +3703,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R21" t="str">
+      <c r="U21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>117-3173</v>
       </c>
-      <c r="S21" t="str">
+      <c r="V21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>117-3173</v>
       </c>
-      <c r="T21" t="str">
+      <c r="W21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U21" t="str">
+      <c r="X21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto</v>
       </c>
-      <c r="V21" t="str">
+      <c r="Y21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W21" t="str">
+      <c r="Z21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X21" t="str">
+      <c r="AA21" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -3651,40 +3781,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R22" t="str">
+      <c r="U22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5117CTK</v>
       </c>
-      <c r="S22" t="str">
+      <c r="V22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5117CTK</v>
       </c>
-      <c r="T22" t="str">
+      <c r="W22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U22" t="str">
+      <c r="X22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto</v>
       </c>
-      <c r="V22" t="str">
+      <c r="Y22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W22" t="str">
+      <c r="Z22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X22" t="str">
+      <c r="AA22" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -3725,40 +3859,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R23" t="str">
+      <c r="U23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5130CTK</v>
       </c>
-      <c r="S23" t="str">
+      <c r="V23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5130CTK</v>
       </c>
-      <c r="T23" t="str">
+      <c r="W23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U23" t="str">
+      <c r="X23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Alto</v>
       </c>
-      <c r="V23" t="str">
+      <c r="Y23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W23" t="str">
+      <c r="Z23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X23" t="str">
+      <c r="AA23" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -3799,40 +3937,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R24" t="str">
+      <c r="U24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>4115-3106</v>
       </c>
-      <c r="S24" t="str">
+      <c r="V24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4115-3106</v>
       </c>
-      <c r="T24" t="str">
+      <c r="W24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U24" t="str">
+      <c r="X24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Barret</v>
       </c>
-      <c r="V24" t="str">
+      <c r="Y24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W24" t="str">
+      <c r="Z24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X24" t="str">
+      <c r="AA24" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -3873,40 +4015,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R25" t="str">
+      <c r="U25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5147CTK</v>
       </c>
-      <c r="S25" t="str">
+      <c r="V25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5147CTK</v>
       </c>
-      <c r="T25" t="str">
+      <c r="W25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U25" t="str">
+      <c r="X25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Brentwood</v>
       </c>
-      <c r="V25" t="str">
+      <c r="Y25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W25" t="str">
+      <c r="Z25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X25" t="str">
+      <c r="AA25" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -3947,40 +4093,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R26" t="str">
+      <c r="U26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5148CTK</v>
       </c>
-      <c r="S26" t="str">
+      <c r="V26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5148CTK</v>
       </c>
-      <c r="T26" t="str">
+      <c r="W26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U26" t="str">
+      <c r="X26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Brentwood</v>
       </c>
-      <c r="V26" t="str">
+      <c r="Y26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W26" t="str">
+      <c r="Z26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X26" t="str">
+      <c r="AA26" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -4021,40 +4171,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R27" t="str">
+      <c r="U27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>710CTK</v>
       </c>
-      <c r="S27" t="str">
+      <c r="V27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>710CTK</v>
       </c>
-      <c r="T27" t="str">
+      <c r="W27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U27" t="str">
+      <c r="X27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Broadway</v>
       </c>
-      <c r="V27" t="str">
+      <c r="Y27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W27" t="str">
+      <c r="Z27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X27" t="str">
+      <c r="AA27" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -4095,40 +4249,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R28" t="str">
+      <c r="U28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5817CTK</v>
       </c>
-      <c r="S28" t="str">
+      <c r="V28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5817CTK</v>
       </c>
-      <c r="T28" t="str">
+      <c r="W28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U28" t="str">
+      <c r="X28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cascade</v>
       </c>
-      <c r="V28" t="str">
+      <c r="Y28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W28" t="str">
+      <c r="Z28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X28" t="str">
+      <c r="AA28" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -4169,40 +4327,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R29" t="str">
+      <c r="U29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5916CTK</v>
       </c>
-      <c r="S29" t="str">
+      <c r="V29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5916CTK</v>
       </c>
-      <c r="T29" t="str">
+      <c r="W29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U29" t="str">
+      <c r="X29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Denali</v>
       </c>
-      <c r="V29" t="str">
+      <c r="Y29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W29" t="str">
+      <c r="Z29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X29" t="str">
+      <c r="AA29" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -4243,40 +4405,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R30" t="str">
+      <c r="U30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>4326-4321</v>
       </c>
-      <c r="S30" t="str">
+      <c r="V30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4326-4321</v>
       </c>
-      <c r="T30" t="str">
+      <c r="W30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U30" t="str">
+      <c r="X30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Elementary</v>
       </c>
-      <c r="V30" t="str">
+      <c r="Y30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>10</v>
       </c>
-      <c r="W30" t="str">
+      <c r="Z30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Juvenile - children</v>
       </c>
-      <c r="X30" t="str">
+      <c r="AA30" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -4317,40 +4483,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R31" t="str">
+      <c r="U31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>177-178</v>
       </c>
-      <c r="S31" t="str">
+      <c r="V31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>177-178</v>
       </c>
-      <c r="T31" t="str">
+      <c r="W31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U31" t="str">
+      <c r="X31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Enso</v>
       </c>
-      <c r="V31" t="str">
+      <c r="Y31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W31" t="str">
+      <c r="Z31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard - Smartheight</v>
       </c>
-      <c r="X31" t="str">
+      <c r="AA31" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -4391,40 +4561,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="R32">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R32" t="str">
+      <c r="U32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>1014-1012</v>
       </c>
-      <c r="S32" t="str">
+      <c r="V32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>1014-1012</v>
       </c>
-      <c r="T32" t="str">
+      <c r="W32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U32" t="str">
+      <c r="X32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maverick</v>
       </c>
-      <c r="V32" t="str">
+      <c r="Y32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W32" t="str">
+      <c r="Z32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard - Smartheight</v>
       </c>
-      <c r="X32" t="str">
+      <c r="AA32" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -4465,40 +4639,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="R33">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R33" t="str">
+      <c r="U33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>760</v>
       </c>
-      <c r="S33" t="str">
+      <c r="V33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>760</v>
       </c>
-      <c r="T33" t="str">
+      <c r="W33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U33" t="str">
+      <c r="X33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Nyren</v>
       </c>
-      <c r="V33" t="str">
+      <c r="Y33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W33" t="str">
+      <c r="Z33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X33" t="str">
+      <c r="AA33" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -4539,40 +4717,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="R34">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R34" t="str">
+      <c r="U34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5135CTK</v>
       </c>
-      <c r="S34" t="str">
+      <c r="V34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5135CTK</v>
       </c>
-      <c r="T34" t="str">
+      <c r="W34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U34" t="str">
+      <c r="X34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Pro-Fit</v>
       </c>
-      <c r="V34" t="str">
+      <c r="Y34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W34" t="str">
+      <c r="Z34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X34" t="str">
+      <c r="AA34" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -4613,40 +4795,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="R35">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R35" t="str">
+      <c r="U35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148-153</v>
       </c>
-      <c r="S35" t="str">
+      <c r="V35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>148-153</v>
       </c>
-      <c r="T35" t="str">
+      <c r="W35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U35" t="str">
+      <c r="X35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum One</v>
       </c>
-      <c r="V35" t="str">
+      <c r="Y35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W35" t="str">
+      <c r="Z35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X35" t="str">
+      <c r="AA35" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -4687,40 +4873,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="R36">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R36" t="str">
+      <c r="U36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>144-153</v>
       </c>
-      <c r="S36" t="str">
+      <c r="V36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>144-153</v>
       </c>
-      <c r="T36" t="str">
+      <c r="W36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U36" t="str">
+      <c r="X36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum One</v>
       </c>
-      <c r="V36" t="str">
+      <c r="Y36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W36" t="str">
+      <c r="Z36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X36" t="str">
+      <c r="AA36" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -4761,40 +4951,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="R37">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R37" t="str">
+      <c r="U37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>149-153</v>
       </c>
-      <c r="S37" t="str">
+      <c r="V37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>149-153</v>
       </c>
-      <c r="T37" t="str">
+      <c r="W37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U37" t="str">
+      <c r="X37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum One</v>
       </c>
-      <c r="V37" t="str">
+      <c r="Y37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W37" t="str">
+      <c r="Z37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X37" t="str">
+      <c r="AA37" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
@@ -4835,40 +5029,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="R38">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R38" t="str">
+      <c r="U38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5384DFCTK</v>
       </c>
-      <c r="S38" t="str">
+      <c r="V38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5384DFCTK</v>
       </c>
-      <c r="T38" t="str">
+      <c r="W38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U38" t="str">
+      <c r="X38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V38" t="str">
+      <c r="Y38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W38" t="str">
+      <c r="Z38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X38" t="str">
+      <c r="AA38" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -4909,40 +5107,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="R39">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R39" t="str">
+      <c r="U39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5385CTK</v>
       </c>
-      <c r="S39" t="str">
+      <c r="V39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5385CTK</v>
       </c>
-      <c r="T39" t="str">
+      <c r="W39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U39" t="str">
+      <c r="X39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V39" t="str">
+      <c r="Y39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>10</v>
       </c>
-      <c r="W39" t="str">
+      <c r="Z39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X39" t="str">
+      <c r="AA39" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -4983,40 +5185,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q40" t="str">
+      <c r="R40">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R40" t="str">
+      <c r="U40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5384CTK</v>
       </c>
-      <c r="S40" t="str">
+      <c r="V40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5384CTK</v>
       </c>
-      <c r="T40" t="str">
+      <c r="W40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U40" t="str">
+      <c r="X40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V40" t="str">
+      <c r="Y40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W40" t="str">
+      <c r="Z40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X40" t="str">
+      <c r="AA40" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -5057,40 +5263,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="R41">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R41" t="str">
+      <c r="U41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384-387RH</v>
       </c>
-      <c r="S41" t="str">
+      <c r="V41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>384-387RH</v>
       </c>
-      <c r="T41" t="str">
+      <c r="W41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U41" t="str">
+      <c r="X41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V41" t="str">
+      <c r="Y41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W41" t="str">
+      <c r="Z41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X41" t="str">
+      <c r="AA41" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
@@ -5131,40 +5341,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="R42">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R42" t="str">
+      <c r="U42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>380-387</v>
       </c>
-      <c r="S42" t="str">
+      <c r="V42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>380-387</v>
       </c>
-      <c r="T42" t="str">
+      <c r="W42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U42" t="str">
+      <c r="X42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V42" t="str">
+      <c r="Y42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W42" t="str">
+      <c r="Z42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X42" t="str">
+      <c r="AA42" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -5205,40 +5419,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="R43">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R43" t="str">
+      <c r="U43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5988CTK</v>
       </c>
-      <c r="S43" t="str">
+      <c r="V43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5988CTK</v>
       </c>
-      <c r="T43" t="str">
+      <c r="W43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U43" t="str">
+      <c r="X43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Vanquish</v>
       </c>
-      <c r="V43" t="str">
+      <c r="Y43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W43" t="str">
+      <c r="Z43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X43" t="str">
+      <c r="AA43" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
@@ -5279,40 +5497,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q44" t="str">
+      <c r="R44">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R44" t="str">
+      <c r="U44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5030CTK</v>
       </c>
-      <c r="S44" t="str">
+      <c r="V44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>5030CTK</v>
       </c>
-      <c r="T44" t="str">
+      <c r="W44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U44" t="str">
+      <c r="X44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>VX1</v>
       </c>
-      <c r="V44" t="str">
+      <c r="Y44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W44" t="str">
+      <c r="Z44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X44" t="str">
+      <c r="AA44" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -5353,40 +5575,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="R45">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R45" t="str">
+      <c r="U45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137CTK</v>
       </c>
-      <c r="S45" t="str">
+      <c r="V45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>137CTK</v>
       </c>
-      <c r="T45" t="str">
+      <c r="W45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U45" t="str">
+      <c r="X45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Profit 3</v>
       </c>
-      <c r="V45" t="str">
+      <c r="Y45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W45" t="str">
+      <c r="Z45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X45" t="str">
+      <c r="AA45" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -5427,40 +5653,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q46" t="str">
+      <c r="R46">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R46" t="str">
+      <c r="U46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135CTK</v>
       </c>
-      <c r="S46" t="str">
+      <c r="V46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>135CTK</v>
       </c>
-      <c r="T46" t="str">
+      <c r="W46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U46" t="str">
+      <c r="X46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Profit 2</v>
       </c>
-      <c r="V46" t="str">
+      <c r="Y46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W46" t="str">
+      <c r="Z46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X46" t="str">
+      <c r="AA46" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -5501,40 +5731,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q47" t="str">
+      <c r="R47">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R47" t="str">
+      <c r="U47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130CTK</v>
       </c>
-      <c r="S47" t="str">
+      <c r="V47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>130CTK</v>
       </c>
-      <c r="T47" t="str">
+      <c r="W47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U47" t="str">
+      <c r="X47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Profit 1</v>
       </c>
-      <c r="V47" t="str">
+      <c r="Y47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W47" t="str">
+      <c r="Z47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X47" t="str">
+      <c r="AA47" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
@@ -5575,40 +5809,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q48" t="str">
+      <c r="R48">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R48" t="str">
+      <c r="U48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384CTK</v>
       </c>
-      <c r="S48" t="str">
+      <c r="V48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>384CTK</v>
       </c>
-      <c r="T48" t="str">
+      <c r="W48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U48" t="str">
+      <c r="X48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V48" t="str">
+      <c r="Y48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W48" t="str">
+      <c r="Z48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X48" t="str">
+      <c r="AA48" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
@@ -5649,40 +5887,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q49" t="str">
+      <c r="R49">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R49" t="str">
+      <c r="U49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>103580000</v>
       </c>
-      <c r="S49" t="str">
+      <c r="V49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>103580000</v>
       </c>
-      <c r="T49" t="str">
+      <c r="W49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U49" t="str">
+      <c r="X49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>VX1</v>
       </c>
-      <c r="V49" t="str">
+      <c r="Y49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W49" t="str">
+      <c r="Z49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X49" t="str">
+      <c r="AA49" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -5723,40 +5965,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="R50">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R50" t="str">
+      <c r="U50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>103780000</v>
       </c>
-      <c r="S50" t="str">
+      <c r="V50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>103780000</v>
       </c>
-      <c r="T50" t="str">
+      <c r="W50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U50" t="str">
+      <c r="X50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>VX1</v>
       </c>
-      <c r="V50" t="str">
+      <c r="Y50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W50" t="str">
+      <c r="Z50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X50" t="str">
+      <c r="AA50" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -5797,40 +6043,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="R51">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R51" t="str">
+      <c r="U51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>107380000</v>
       </c>
-      <c r="S51" t="str">
+      <c r="V51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>107380000</v>
       </c>
-      <c r="T51" t="str">
+      <c r="W51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U51" t="str">
+      <c r="X51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>VX1</v>
       </c>
-      <c r="V51" t="str">
+      <c r="Y51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W51" t="str">
+      <c r="Z51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X51" t="str">
+      <c r="AA51" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -5871,40 +6121,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q52" t="str">
+      <c r="R52">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R52" t="str">
+      <c r="U52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>377010000</v>
       </c>
-      <c r="S52" t="str">
+      <c r="V52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>377010000</v>
       </c>
-      <c r="T52" t="str">
+      <c r="W52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U52" t="str">
+      <c r="X52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Summit</v>
       </c>
-      <c r="V52" t="str">
+      <c r="Y52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W52" t="str">
+      <c r="Z52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X52" t="str">
+      <c r="AA52" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -5945,40 +6199,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q53" t="str">
+      <c r="R53">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Mansfield</v>
       </c>
-      <c r="R53" t="str">
+      <c r="U53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148/123</v>
       </c>
-      <c r="S53" t="str">
+      <c r="V53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>148/123</v>
       </c>
-      <c r="T53" t="str">
+      <c r="W53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U53" t="str">
+      <c r="X53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Quantum</v>
       </c>
-      <c r="V53" t="str">
+      <c r="Y53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W53" t="str">
+      <c r="Z53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X53" t="str">
+      <c r="AA53" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>254</v>
       </c>
@@ -6017,40 +6275,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q54" t="str">
+      <c r="R54">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Vortens</v>
       </c>
-      <c r="R54" t="str">
+      <c r="U54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v/>
       </c>
-      <c r="S54" t="str">
+      <c r="V54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3486</v>
       </c>
-      <c r="T54" t="str">
+      <c r="W54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U54" t="str">
+      <c r="X54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>MEDALIST</v>
       </c>
-      <c r="V54" t="str">
+      <c r="Y54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W54" t="str">
+      <c r="Z54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X54" t="str">
+      <c r="AA54" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>254</v>
       </c>
@@ -6089,40 +6351,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q55" t="str">
+      <c r="R55">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Vortens</v>
       </c>
-      <c r="R55" t="str">
+      <c r="U55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v/>
       </c>
-      <c r="S55" t="str">
+      <c r="V55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3151</v>
       </c>
-      <c r="T55" t="str">
+      <c r="W55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U55" t="str">
+      <c r="X55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>MEDALIST</v>
       </c>
-      <c r="V55" t="str">
+      <c r="Y55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W55" t="str">
+      <c r="Z55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X55" t="str">
+      <c r="AA55" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>264</v>
       </c>
@@ -6163,40 +6429,53 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q56" t="str">
+      <c r="O56" t="s">
+        <v>523</v>
+      </c>
+      <c r="P56">
+        <v>213</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R56" s="8">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>73.911000000000001</v>
+      </c>
+      <c r="T56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R56" t="str">
+      <c r="U56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>387010000</v>
       </c>
-      <c r="S56" t="str">
+      <c r="V56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4021.101N</v>
       </c>
-      <c r="T56" t="str">
+      <c r="W56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U56" t="str">
+      <c r="X56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V56" t="str">
+      <c r="Y56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W56" t="str">
+      <c r="Z56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X56" t="str">
+      <c r="AA56" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>264</v>
       </c>
@@ -6237,47 +6516,60 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q57" t="str">
+      <c r="O57" t="s">
+        <v>522</v>
+      </c>
+      <c r="P57">
+        <v>369</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R57" s="8">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>128.04299999999998</v>
+      </c>
+      <c r="T57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R57" t="str">
+      <c r="U57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384CTK</v>
       </c>
-      <c r="S57" t="str">
+      <c r="V57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>270AA.001</v>
       </c>
-      <c r="T57" t="str">
+      <c r="W57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U57" t="str">
+      <c r="X57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V57" t="str">
+      <c r="Y57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W57" t="str">
+      <c r="Z57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X57" t="str">
+      <c r="AA57" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -6304,47 +6596,60 @@
       <c r="K58" t="s">
         <v>276</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="2" t="s">
         <v>277</v>
       </c>
       <c r="N58" t="str">
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q58" t="str">
+      <c r="O58" t="s">
+        <v>523</v>
+      </c>
+      <c r="P58">
+        <v>269</v>
+      </c>
+      <c r="Q58" s="7">
+        <f>Tabla1[[#This Row],[Consumer price]]/Tabla1[[#This Row],[Price list]]</f>
+        <v>0.32490706319702606</v>
+      </c>
+      <c r="R58" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="T58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R58" t="str">
+      <c r="U58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>386010000</v>
       </c>
-      <c r="S58" t="str">
+      <c r="V58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4021.001N</v>
       </c>
-      <c r="T58" t="str">
+      <c r="W58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U58" t="str">
+      <c r="X58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V58" t="str">
+      <c r="Y58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W58" t="str">
+      <c r="Z58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X58" t="str">
+      <c r="AA58" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>264</v>
       </c>
@@ -6385,40 +6690,53 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q59" t="str">
+      <c r="O59" t="s">
+        <v>523</v>
+      </c>
+      <c r="P59">
+        <v>276</v>
+      </c>
+      <c r="Q59" s="7">
+        <f>Tabla1[[#This Row],[Consumer price]]/Tabla1[[#This Row],[Price list]]</f>
+        <v>0.57173913043478264</v>
+      </c>
+      <c r="R59">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="T59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R59" t="str">
+      <c r="U59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384010000</v>
       </c>
-      <c r="S59" t="str">
+      <c r="V59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3717A.001</v>
       </c>
-      <c r="T59" t="str">
+      <c r="W59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U59" t="str">
+      <c r="X59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V59" t="str">
+      <c r="Y59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W59" t="str">
+      <c r="Z59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Chair Height</v>
       </c>
-      <c r="X59" t="str">
+      <c r="AA59" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>264</v>
       </c>
@@ -6459,40 +6777,53 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q60" t="str">
+      <c r="O60" t="s">
+        <v>523</v>
+      </c>
+      <c r="P60">
+        <v>251</v>
+      </c>
+      <c r="Q60" s="7">
+        <f>Tabla1[[#This Row],[Consumer price]]/Tabla1[[#This Row],[Price list]]</f>
+        <v>0.6076892430278884</v>
+      </c>
+      <c r="R60">
+        <v>152.53</v>
+      </c>
+      <c r="T60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R60" t="str">
+      <c r="U60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>388010000</v>
       </c>
-      <c r="S60" t="str">
+      <c r="V60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3717B.001</v>
       </c>
-      <c r="T60" t="str">
+      <c r="W60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U60" t="str">
+      <c r="X60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V60" t="str">
+      <c r="Y60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W60" t="str">
+      <c r="Z60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Chair Height</v>
       </c>
-      <c r="X60" t="str">
+      <c r="AA60" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>264</v>
       </c>
@@ -6533,40 +6864,43 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q61" t="str">
+      <c r="O61" t="s">
+        <v>523</v>
+      </c>
+      <c r="T61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R61" t="str">
+      <c r="U61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>380010000</v>
       </c>
-      <c r="S61" t="str">
+      <c r="V61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3717D.001</v>
       </c>
-      <c r="T61" t="str">
+      <c r="W61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U61" t="str">
+      <c r="X61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V61" t="str">
+      <c r="Y61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W61" t="str">
+      <c r="Z61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X61" t="str">
+      <c r="AA61" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>264</v>
       </c>
@@ -6607,40 +6941,46 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q62" t="str">
+      <c r="O62" t="s">
+        <v>523</v>
+      </c>
+      <c r="R62">
+        <v>204.59</v>
+      </c>
+      <c r="T62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R62" t="str">
+      <c r="U62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>153010000</v>
       </c>
-      <c r="S62" t="str">
+      <c r="V62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4142100</v>
       </c>
-      <c r="T62" t="str">
+      <c r="W62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U62" t="str">
+      <c r="X62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V62" t="str">
+      <c r="Y62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W62" t="str">
+      <c r="Z62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X62" t="str">
+      <c r="AA62" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>264</v>
       </c>
@@ -6681,40 +7021,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q63" t="str">
+      <c r="O63" t="s">
+        <v>522</v>
+      </c>
+      <c r="R63">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R63" t="str">
+      <c r="U63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148/123</v>
       </c>
-      <c r="S63" t="str">
+      <c r="V63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>2467016</v>
       </c>
-      <c r="T63" t="str">
+      <c r="W63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U63" t="str">
+      <c r="X63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet</v>
       </c>
-      <c r="V63" t="str">
+      <c r="Y63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W63" t="str">
+      <c r="Z63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X63" t="str">
+      <c r="AA63" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>264</v>
       </c>
@@ -6755,40 +7102,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q64" t="str">
+      <c r="O64" t="s">
+        <v>522</v>
+      </c>
+      <c r="R64">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R64" t="str">
+      <c r="U64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>123010000</v>
       </c>
-      <c r="S64" t="str">
+      <c r="V64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4142016</v>
       </c>
-      <c r="T64" t="str">
+      <c r="W64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U64" t="str">
+      <c r="X64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet</v>
       </c>
-      <c r="V64" t="str">
+      <c r="Y64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W64" t="str">
+      <c r="Z64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X64" t="str">
+      <c r="AA64" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>264</v>
       </c>
@@ -6829,40 +7183,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q65" t="str">
+      <c r="O65" t="s">
+        <v>523</v>
+      </c>
+      <c r="R65">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R65" t="str">
+      <c r="U65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148010000</v>
       </c>
-      <c r="S65" t="str">
+      <c r="V65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3483001</v>
       </c>
-      <c r="T65" t="str">
+      <c r="W65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U65" t="str">
+      <c r="X65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet</v>
       </c>
-      <c r="V65" t="str">
+      <c r="Y65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W65" t="str">
+      <c r="Z65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X65" t="str">
+      <c r="AA65" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>264</v>
       </c>
@@ -6903,40 +7264,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q66" t="str">
+      <c r="O66" t="s">
+        <v>523</v>
+      </c>
+      <c r="R66">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R66" t="str">
+      <c r="U66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>147010000</v>
       </c>
-      <c r="S66" t="str">
+      <c r="V66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3481001</v>
       </c>
-      <c r="T66" t="str">
+      <c r="W66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U66" t="str">
+      <c r="X66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet</v>
       </c>
-      <c r="V66" t="str">
+      <c r="Y66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W66" t="str">
+      <c r="Z66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X66" t="str">
+      <c r="AA66" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>264</v>
       </c>
@@ -6977,40 +7345,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q67" t="str">
+      <c r="O67" t="s">
+        <v>522</v>
+      </c>
+      <c r="R67">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R67" t="str">
+      <c r="U67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>131900001</v>
       </c>
-      <c r="S67" t="str">
+      <c r="V67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3043001</v>
       </c>
-      <c r="T67" t="str">
+      <c r="W67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U67" t="str">
+      <c r="X67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Madera</v>
       </c>
-      <c r="V67" t="str">
+      <c r="Y67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W67" t="str">
+      <c r="Z67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X67" t="str">
+      <c r="AA67" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>264</v>
       </c>
@@ -7051,40 +7426,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q68" t="str">
+      <c r="O68" t="s">
+        <v>522</v>
+      </c>
+      <c r="R68">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R68" t="str">
+      <c r="U68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>317310000</v>
       </c>
-      <c r="S68" t="str">
+      <c r="V68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4425A104</v>
       </c>
-      <c r="T68" t="str">
+      <c r="W68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U68" t="str">
+      <c r="X68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V68" t="str">
+      <c r="Y68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W68" t="str">
+      <c r="Z68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X68" t="str">
+      <c r="AA68" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>264</v>
       </c>
@@ -7125,40 +7507,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q69" t="str">
+      <c r="O69" t="s">
+        <v>522</v>
+      </c>
+      <c r="R69">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R69" t="str">
+      <c r="U69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>160010007</v>
       </c>
-      <c r="S69" t="str">
+      <c r="V69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4192A004</v>
       </c>
-      <c r="T69" t="str">
+      <c r="W69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U69" t="str">
+      <c r="X69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V69" t="str">
+      <c r="Y69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W69" t="str">
+      <c r="Z69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X69" t="str">
+      <c r="AA69" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>264</v>
       </c>
@@ -7199,40 +7588,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q70" t="str">
+      <c r="O70" t="s">
+        <v>522</v>
+      </c>
+      <c r="R70">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R70" t="str">
+      <c r="U70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137210040</v>
       </c>
-      <c r="S70" t="str">
+      <c r="V70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3437A101</v>
       </c>
-      <c r="T70" t="str">
+      <c r="W70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U70" t="str">
+      <c r="X70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V70" t="str">
+      <c r="Y70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W70" t="str">
+      <c r="Z70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X70" t="str">
+      <c r="AA70" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>264</v>
       </c>
@@ -7273,40 +7669,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q71" t="str">
+      <c r="O71" t="s">
+        <v>522</v>
+      </c>
+      <c r="R71">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R71" t="str">
+      <c r="U71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135010007</v>
       </c>
-      <c r="S71" t="str">
+      <c r="V71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3437C101</v>
       </c>
-      <c r="T71" t="str">
+      <c r="W71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U71" t="str">
+      <c r="X71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V71" t="str">
+      <c r="Y71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W71" t="str">
+      <c r="Z71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X71" t="str">
+      <c r="AA71" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>264</v>
       </c>
@@ -7347,40 +7750,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q72" t="str">
+      <c r="O72" t="s">
+        <v>522</v>
+      </c>
+      <c r="R72">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R72" t="str">
+      <c r="U72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130010007</v>
       </c>
-      <c r="S72" t="str">
+      <c r="V72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3437D101</v>
       </c>
-      <c r="T72" t="str">
+      <c r="W72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U72" t="str">
+      <c r="X72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V72" t="str">
+      <c r="Y72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W72" t="str">
+      <c r="Z72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X72" t="str">
+      <c r="AA72" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -7421,40 +7831,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q73" t="str">
+      <c r="O73" t="s">
+        <v>522</v>
+      </c>
+      <c r="R73">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R73" t="str">
+      <c r="U73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137CTK</v>
       </c>
-      <c r="S73" t="str">
+      <c r="V73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>250AA104</v>
       </c>
-      <c r="T73" t="str">
+      <c r="W73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U73" t="str">
+      <c r="X73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V73" t="str">
+      <c r="Y73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W73" t="str">
+      <c r="Z73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X73" t="str">
+      <c r="AA73" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>264</v>
       </c>
@@ -7495,40 +7912,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q74" t="str">
+      <c r="O74" t="s">
+        <v>522</v>
+      </c>
+      <c r="R74">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R74" t="str">
+      <c r="U74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135CTK</v>
       </c>
-      <c r="S74" t="str">
+      <c r="V74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>250CA104</v>
       </c>
-      <c r="T74" t="str">
+      <c r="W74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U74" t="str">
+      <c r="X74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V74" t="str">
+      <c r="Y74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W74" t="str">
+      <c r="Z74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X74" t="str">
+      <c r="AA74" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>264</v>
       </c>
@@ -7569,40 +7993,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q75" t="str">
+      <c r="O75" t="s">
+        <v>522</v>
+      </c>
+      <c r="R75">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R75" t="str">
+      <c r="U75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130CTK</v>
       </c>
-      <c r="S75" t="str">
+      <c r="V75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>250DA104</v>
       </c>
-      <c r="T75" t="str">
+      <c r="W75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U75" t="str">
+      <c r="X75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Reliant</v>
       </c>
-      <c r="V75" t="str">
+      <c r="Y75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W75" t="str">
+      <c r="Z75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X75" t="str">
+      <c r="AA75" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -7643,47 +8074,54 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q76" t="str">
+      <c r="O76" t="s">
+        <v>522</v>
+      </c>
+      <c r="R76">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R76" t="str">
+      <c r="U76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>151010000</v>
       </c>
-      <c r="S76" t="str">
+      <c r="V76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>3703100</v>
       </c>
-      <c r="T76" t="str">
+      <c r="W76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U76" t="str">
+      <c r="X76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Yorkville</v>
       </c>
-      <c r="V76" t="str">
+      <c r="Y76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W76" t="str">
+      <c r="Z76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X76" t="str">
+      <c r="AA76" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -7717,40 +8155,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q77" t="str">
+      <c r="O77" t="s">
+        <v>522</v>
+      </c>
+      <c r="R77">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>American Standard</v>
       </c>
-      <c r="R77" t="str">
+      <c r="U77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>386010000</v>
       </c>
-      <c r="S77" t="str">
+      <c r="V77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4019.001N.020</v>
       </c>
-      <c r="T77" t="str">
+      <c r="W77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U77" t="str">
+      <c r="X77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Cadet 3</v>
       </c>
-      <c r="V77" t="str">
+      <c r="Y77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W77" t="str">
+      <c r="Z77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X77" t="str">
+      <c r="AA77" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>356</v>
       </c>
@@ -7788,40 +8233,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q78" t="str">
+      <c r="R78">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R78" t="str">
+      <c r="U78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137CTK</v>
       </c>
-      <c r="S78" t="str">
+      <c r="V78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4038</v>
       </c>
-      <c r="T78" t="str">
+      <c r="W78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U78" t="str">
+      <c r="X78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima HET</v>
       </c>
-      <c r="V78" t="str">
+      <c r="Y78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W78" t="str">
+      <c r="Z78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X78" t="str">
+      <c r="AA78" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -7859,40 +8308,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q79" t="str">
+      <c r="R79">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R79" t="str">
+      <c r="U79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135CTK</v>
       </c>
-      <c r="S79" t="str">
+      <c r="V79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4035</v>
       </c>
-      <c r="T79" t="str">
+      <c r="W79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U79" t="str">
+      <c r="X79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima HET</v>
       </c>
-      <c r="V79" t="str">
+      <c r="Y79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W79" t="str">
+      <c r="Z79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v/>
       </c>
-      <c r="X79" t="str">
+      <c r="AA79" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7930,40 +8383,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q80" t="str">
+      <c r="R80">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R80" t="str">
+      <c r="U80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130CTK</v>
       </c>
-      <c r="S80" t="str">
+      <c r="V80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4030</v>
       </c>
-      <c r="T80" t="str">
+      <c r="W80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U80" t="str">
+      <c r="X80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima HET</v>
       </c>
-      <c r="V80" t="str">
+      <c r="Y80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W80" t="str">
+      <c r="Z80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v/>
       </c>
-      <c r="X80" t="str">
+      <c r="AA80" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>356</v>
       </c>
@@ -8001,40 +8458,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q81" t="str">
+      <c r="R81">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R81" t="str">
+      <c r="U81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>317310000</v>
       </c>
-      <c r="S81" t="str">
+      <c r="V81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4130</v>
       </c>
-      <c r="T81" t="str">
+      <c r="W81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U81" t="str">
+      <c r="X81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima</v>
       </c>
-      <c r="V81" t="str">
+      <c r="Y81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W81" t="str">
+      <c r="Z81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X81" t="str">
+      <c r="AA81" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>356</v>
       </c>
@@ -8072,40 +8533,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q82" t="str">
+      <c r="R82">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R82" t="str">
+      <c r="U82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137210040</v>
       </c>
-      <c r="S82" t="str">
+      <c r="V82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4328</v>
       </c>
-      <c r="T82" t="str">
+      <c r="W82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U82" t="str">
+      <c r="X82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima</v>
       </c>
-      <c r="V82" t="str">
+      <c r="Y82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W82" t="str">
+      <c r="Z82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X82" t="str">
+      <c r="AA82" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>356</v>
       </c>
@@ -8143,40 +8608,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q83" t="str">
+      <c r="R83">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R83" t="str">
+      <c r="U83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135010007</v>
       </c>
-      <c r="S83" t="str">
+      <c r="V83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4325</v>
       </c>
-      <c r="T83" t="str">
+      <c r="W83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U83" t="str">
+      <c r="X83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima</v>
       </c>
-      <c r="V83" t="str">
+      <c r="Y83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W83" t="str">
+      <c r="Z83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X83" t="str">
+      <c r="AA83" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>356</v>
       </c>
@@ -8214,40 +8683,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q84" t="str">
+      <c r="R84">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R84" t="str">
+      <c r="U84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130010007</v>
       </c>
-      <c r="S84" t="str">
+      <c r="V84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>4320</v>
       </c>
-      <c r="T84" t="str">
+      <c r="W84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U84" t="str">
+      <c r="X84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Altima</v>
       </c>
-      <c r="V84" t="str">
+      <c r="Y84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W84" t="str">
+      <c r="Z84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X84" t="str">
+      <c r="AA84" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>356</v>
       </c>
@@ -8285,40 +8758,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q85" t="str">
+      <c r="R85">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Briggs</v>
       </c>
-      <c r="R85" t="str">
+      <c r="U85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>131900001</v>
       </c>
-      <c r="S85" t="str">
+      <c r="V85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>7791</v>
       </c>
-      <c r="T85" t="str">
+      <c r="W85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U85" t="str">
+      <c r="X85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Carlton</v>
       </c>
-      <c r="V85" t="str">
+      <c r="Y85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W85" t="str">
+      <c r="Z85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X85" t="str">
+      <c r="AA85" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>385</v>
       </c>
@@ -8359,40 +8836,50 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q86" t="str">
+      <c r="O86" t="s">
+        <v>522</v>
+      </c>
+      <c r="P86">
+        <v>700</v>
+      </c>
+      <c r="R86">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R86" t="str">
+      <c r="U86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148/123</v>
       </c>
-      <c r="S86" t="str">
+      <c r="V86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>G0020318</v>
       </c>
-      <c r="T86" t="str">
+      <c r="W86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U86" t="str">
+      <c r="X86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V86" t="str">
+      <c r="Y86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W86" t="str">
+      <c r="Z86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X86" t="str">
+      <c r="AA86" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>385</v>
       </c>
@@ -8433,40 +8920,53 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q87" t="str">
+      <c r="O87" t="s">
+        <v>523</v>
+      </c>
+      <c r="P87">
+        <v>687</v>
+      </c>
+      <c r="Q87" s="6">
+        <f>Tabla1[[#This Row],[Consumer price]]/Tabla1[[#This Row],[Price list]]</f>
+        <v>0.70014556040756915</v>
+      </c>
+      <c r="R87">
+        <v>481</v>
+      </c>
+      <c r="T87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R87" t="str">
+      <c r="U87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>5916CTK</v>
       </c>
-      <c r="S87" t="str">
+      <c r="V87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>G0021975</v>
       </c>
-      <c r="T87" t="str">
+      <c r="W87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U87" t="str">
+      <c r="X87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V87" t="str">
+      <c r="Y87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>4 - 1/4</v>
       </c>
-      <c r="W87" t="str">
+      <c r="Z87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X87" t="str">
+      <c r="AA87" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>385</v>
       </c>
@@ -8507,40 +9007,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q88" t="str">
+      <c r="O88" t="s">
+        <v>522</v>
+      </c>
+      <c r="R88">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R88" t="str">
+      <c r="U88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>131900001</v>
       </c>
-      <c r="S88" t="str">
+      <c r="V88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>G0025733</v>
       </c>
-      <c r="T88" t="str">
+      <c r="W88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U88" t="str">
+      <c r="X88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>North Point</v>
       </c>
-      <c r="V88" t="str">
+      <c r="Y88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>10</v>
       </c>
-      <c r="W88" t="str">
+      <c r="Z88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X88" t="str">
+      <c r="AA88" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>385</v>
       </c>
@@ -8581,40 +9088,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q89" t="str">
+      <c r="R89">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R89" t="str">
+      <c r="U89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>123010000</v>
       </c>
-      <c r="S89" t="str">
+      <c r="V89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>G0028380</v>
       </c>
-      <c r="T89" t="str">
+      <c r="W89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U89" t="str">
+      <c r="X89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V89" t="str">
+      <c r="Y89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W89" t="str">
+      <c r="Z89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X89" t="str">
+      <c r="AA89" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>385</v>
       </c>
@@ -8655,40 +9166,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q90" t="str">
+      <c r="O90" t="s">
+        <v>523</v>
+      </c>
+      <c r="R90">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R90" t="str">
+      <c r="U90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>317310000</v>
       </c>
-      <c r="S90" t="str">
+      <c r="V90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>G0028990</v>
       </c>
-      <c r="T90" t="str">
+      <c r="W90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U90" t="str">
+      <c r="X90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V90" t="str">
+      <c r="Y90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W90" t="str">
+      <c r="Z90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X90" t="str">
+      <c r="AA90" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>385</v>
       </c>
@@ -8729,40 +9247,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q91" t="str">
+      <c r="R91">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R91" t="str">
+      <c r="U91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>155010000</v>
       </c>
-      <c r="S91" t="str">
+      <c r="V91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GHE28380</v>
       </c>
-      <c r="T91" t="str">
+      <c r="W91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U91" t="str">
+      <c r="X91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V91" t="str">
+      <c r="Y91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W91" t="str">
+      <c r="Z91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X91" t="str">
+      <c r="AA91" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>385</v>
       </c>
@@ -8803,40 +9325,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q92" t="str">
+      <c r="O92" t="s">
+        <v>522</v>
+      </c>
+      <c r="R92">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R92" t="str">
+      <c r="U92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130CTK</v>
       </c>
-      <c r="S92" t="str">
+      <c r="V92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX20902</v>
       </c>
-      <c r="T92" t="str">
+      <c r="W92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U92" t="str">
+      <c r="X92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V92" t="str">
+      <c r="Y92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W92" t="str">
+      <c r="Z92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X92" t="str">
+      <c r="AA92" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>385</v>
       </c>
@@ -8877,40 +9406,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q93" t="str">
+      <c r="O93" t="s">
+        <v>522</v>
+      </c>
+      <c r="R93">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R93" t="str">
+      <c r="U93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135CTK</v>
       </c>
-      <c r="S93" t="str">
+      <c r="V93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX20912</v>
       </c>
-      <c r="T93" t="str">
+      <c r="W93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U93" t="str">
+      <c r="X93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V93" t="str">
+      <c r="Y93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W93" t="str">
+      <c r="Z93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X93" t="str">
+      <c r="AA93" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>385</v>
       </c>
@@ -8951,40 +9487,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q94" t="str">
+      <c r="O94" t="s">
+        <v>522</v>
+      </c>
+      <c r="R94">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R94" t="str">
+      <c r="U94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137CTK</v>
       </c>
-      <c r="S94" t="str">
+      <c r="V94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GWS20918</v>
       </c>
-      <c r="T94" t="str">
+      <c r="W94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U94" t="str">
+      <c r="X94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V94" t="str">
+      <c r="Y94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W94" t="str">
+      <c r="Z94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X94" t="str">
+      <c r="AA94" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>385</v>
       </c>
@@ -9025,40 +9568,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q95" t="str">
+      <c r="O95" t="s">
+        <v>523</v>
+      </c>
+      <c r="R95">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R95" t="str">
+      <c r="U95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137210040</v>
       </c>
-      <c r="S95" t="str">
+      <c r="V95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX21928</v>
       </c>
-      <c r="T95" t="str">
+      <c r="W95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U95" t="str">
+      <c r="X95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V95" t="str">
+      <c r="Y95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>14</v>
       </c>
-      <c r="W95" t="str">
+      <c r="Z95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X95" t="str">
+      <c r="AA95" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>385</v>
       </c>
@@ -9099,40 +9649,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q96" t="str">
+      <c r="O96" t="s">
+        <v>523</v>
+      </c>
+      <c r="R96">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R96" t="str">
+      <c r="U96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130010007</v>
       </c>
-      <c r="S96" t="str">
+      <c r="V96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX21952</v>
       </c>
-      <c r="T96" t="str">
+      <c r="W96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U96" t="str">
+      <c r="X96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V96" t="str">
+      <c r="Y96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W96" t="str">
+      <c r="Z96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X96" t="str">
+      <c r="AA96" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>385</v>
       </c>
@@ -9173,40 +9730,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q97" t="str">
+      <c r="R97">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R97" t="str">
+      <c r="U97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135010007</v>
       </c>
-      <c r="S97" t="str">
+      <c r="V97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX21962</v>
       </c>
-      <c r="T97" t="str">
+      <c r="W97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U97" t="str">
+      <c r="X97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V97" t="str">
+      <c r="Y97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W97" t="str">
+      <c r="Z97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X97" t="str">
+      <c r="AA97" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>385</v>
       </c>
@@ -9247,40 +9808,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q98" t="str">
+      <c r="O98" t="s">
+        <v>523</v>
+      </c>
+      <c r="R98">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R98" t="str">
+      <c r="U98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>160010007</v>
       </c>
-      <c r="S98" t="str">
+      <c r="V98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GMX28990</v>
       </c>
-      <c r="T98" t="str">
+      <c r="W98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U98" t="str">
+      <c r="X98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V98" t="str">
+      <c r="Y98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W98" t="str">
+      <c r="Z98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X98" t="str">
+      <c r="AA98" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>385</v>
       </c>
@@ -9321,40 +9889,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q99" t="str">
+      <c r="R99">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R99" t="str">
+      <c r="U99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>147010000</v>
       </c>
-      <c r="S99" t="str">
+      <c r="V99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GUF21372</v>
       </c>
-      <c r="T99" t="str">
+      <c r="W99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U99" t="str">
+      <c r="X99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V99" t="str">
+      <c r="Y99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W99" t="str">
+      <c r="Z99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X99" t="str">
+      <c r="AA99" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>385</v>
       </c>
@@ -9395,40 +9967,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q100" t="str">
+      <c r="R100">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R100" t="str">
+      <c r="U100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>151010000</v>
       </c>
-      <c r="S100" t="str">
+      <c r="V100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GUF21375</v>
       </c>
-      <c r="T100" t="str">
+      <c r="W100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U100" t="str">
+      <c r="X100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V100" t="str">
+      <c r="Y100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W100" t="str">
+      <c r="Z100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X100" t="str">
+      <c r="AA100" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>385</v>
       </c>
@@ -9469,40 +10045,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q101" t="str">
+      <c r="R101">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R101" t="str">
+      <c r="U101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148010000</v>
       </c>
-      <c r="S101" t="str">
+      <c r="V101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GUF21377</v>
       </c>
-      <c r="T101" t="str">
+      <c r="W101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U101" t="str">
+      <c r="X101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V101" t="str">
+      <c r="Y101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W101" t="str">
+      <c r="Z101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X101" t="str">
+      <c r="AA101" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>385</v>
       </c>
@@ -9543,40 +10123,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q102" t="str">
+      <c r="R102">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R102" t="str">
+      <c r="U102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>153010000</v>
       </c>
-      <c r="S102" t="str">
+      <c r="V102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GUF28380</v>
       </c>
-      <c r="T102" t="str">
+      <c r="W102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U102" t="str">
+      <c r="X102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="V102" t="str">
+      <c r="Y102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W102" t="str">
+      <c r="Z102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X102" t="str">
+      <c r="AA102" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>385</v>
       </c>
@@ -9617,40 +10201,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q103" t="str">
+      <c r="O103" t="s">
+        <v>522</v>
+      </c>
+      <c r="R103">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R103" t="str">
+      <c r="U103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>117160</v>
       </c>
-      <c r="S103" t="str">
+      <c r="V103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GVP21502</v>
       </c>
-      <c r="T103" t="str">
+      <c r="W103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U103" t="str">
+      <c r="X103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V103" t="str">
+      <c r="Y103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W103" t="str">
+      <c r="Z103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X103" t="str">
+      <c r="AA103" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round Front</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>385</v>
       </c>
@@ -9691,40 +10282,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q104" t="str">
+      <c r="O104" t="s">
+        <v>522</v>
+      </c>
+      <c r="R104">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R104" t="str">
+      <c r="U104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384CTK</v>
       </c>
-      <c r="S104" t="str">
+      <c r="V104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GVP21518</v>
       </c>
-      <c r="T104" t="str">
+      <c r="W104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>CTK</v>
       </c>
-      <c r="U104" t="str">
+      <c r="X104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V104" t="str">
+      <c r="Y104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W104" t="str">
+      <c r="Z104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X104" t="str">
+      <c r="AA104" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>385</v>
       </c>
@@ -9765,40 +10363,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q105" t="str">
+      <c r="R105">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R105" t="str">
+      <c r="U105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>384010000</v>
       </c>
-      <c r="S105" t="str">
+      <c r="V105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GVP2152825</v>
       </c>
-      <c r="T105" t="str">
+      <c r="W105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U105" t="str">
+      <c r="X105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V105" t="str">
+      <c r="Y105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W105" t="str">
+      <c r="Z105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X105" t="str">
+      <c r="AA105" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>385</v>
       </c>
@@ -9836,47 +10438,51 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q106" t="str">
+      <c r="R106">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R106" t="str">
+      <c r="U106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>380010000</v>
       </c>
-      <c r="S106" t="str">
+      <c r="V106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GVP2155225</v>
       </c>
-      <c r="T106" t="str">
+      <c r="W106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U106" t="str">
+      <c r="X106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V106" t="str">
+      <c r="Y106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W106" t="str">
+      <c r="Z106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X106" t="str">
+      <c r="AA106" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round front</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -9910,40 +10516,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q107" t="str">
+      <c r="O107" t="s">
+        <v>523</v>
+      </c>
+      <c r="R107">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R107" t="str">
+      <c r="U107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>386010000</v>
       </c>
-      <c r="S107" t="str">
+      <c r="V107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GVP2859025</v>
       </c>
-      <c r="T107" t="str">
+      <c r="W107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U107" t="str">
+      <c r="X107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V107" t="str">
+      <c r="Y107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W107" t="str">
+      <c r="Z107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X107" t="str">
+      <c r="AA107" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>385</v>
       </c>
@@ -9984,40 +10597,47 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q108" t="str">
+      <c r="O108" t="s">
+        <v>522</v>
+      </c>
+      <c r="R108">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R108" t="str">
+      <c r="U108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>3151-3486</v>
       </c>
-      <c r="S108" t="str">
+      <c r="V108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GWS20912</v>
       </c>
-      <c r="T108" t="str">
+      <c r="W108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U108" t="str">
+      <c r="X108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Maxwell</v>
       </c>
-      <c r="V108" t="str">
+      <c r="Y108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W108" t="str">
+      <c r="Z108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X108" t="str">
+      <c r="AA108" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>385</v>
       </c>
@@ -10055,40 +10675,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q109" t="str">
+      <c r="R109">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Gerber</v>
       </c>
-      <c r="R109" t="str">
+      <c r="U109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>387010000</v>
       </c>
-      <c r="S109" t="str">
+      <c r="V109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>GWS2859025</v>
       </c>
-      <c r="T109" t="str">
+      <c r="W109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U109" t="str">
+      <c r="X109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>Viper</v>
       </c>
-      <c r="V109" t="str">
+      <c r="Y109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W109" t="str">
+      <c r="Z109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X109" t="str">
+      <c r="AA109" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>486</v>
       </c>
@@ -10129,40 +10753,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>Si</v>
       </c>
-      <c r="Q110" t="str">
+      <c r="R110">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R110" t="str">
+      <c r="U110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>317310000</v>
       </c>
-      <c r="S110" t="str">
+      <c r="V110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>T8-HP</v>
       </c>
-      <c r="T110" t="str">
+      <c r="W110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Tank</v>
       </c>
-      <c r="U110" t="str">
+      <c r="X110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>T8-HP</v>
       </c>
-      <c r="V110" t="str">
+      <c r="Y110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>NA</v>
       </c>
-      <c r="W110" t="str">
+      <c r="Z110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>NA</v>
       </c>
-      <c r="X110" t="str">
+      <c r="AA110" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>486</v>
       </c>
@@ -10200,40 +10828,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q111" t="str">
+      <c r="R111">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R111" t="str">
+      <c r="U111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137CTK</v>
       </c>
-      <c r="S111" t="str">
+      <c r="V111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B872-T-HP</v>
       </c>
-      <c r="T111" t="str">
+      <c r="W111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U111" t="str">
+      <c r="X111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B872-T-HP</v>
       </c>
-      <c r="V111" t="str">
+      <c r="Y111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W111" t="str">
+      <c r="Z111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X111" t="str">
+      <c r="AA111" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>486</v>
       </c>
@@ -10271,40 +10903,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q112" t="str">
+      <c r="R112">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R112" t="str">
+      <c r="U112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135CTK</v>
       </c>
-      <c r="S112" t="str">
+      <c r="V112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B832-T8-HP</v>
       </c>
-      <c r="T112" t="str">
+      <c r="W112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U112" t="str">
+      <c r="X112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B832-T8-HP</v>
       </c>
-      <c r="V112" t="str">
+      <c r="Y112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W112" t="str">
+      <c r="Z112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v/>
       </c>
-      <c r="X112" t="str">
+      <c r="AA112" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>486</v>
       </c>
@@ -10342,40 +10978,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q113" t="str">
+      <c r="R113">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R113" t="str">
+      <c r="U113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130CTK</v>
       </c>
-      <c r="S113" t="str">
+      <c r="V113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B822-T8-HP</v>
       </c>
-      <c r="T113" t="str">
+      <c r="W113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U113" t="str">
+      <c r="X113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B822-T8-HP</v>
       </c>
-      <c r="V113" t="str">
+      <c r="Y113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W113" t="str">
+      <c r="Z113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v/>
       </c>
-      <c r="X113" t="str">
+      <c r="AA113" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>486</v>
       </c>
@@ -10413,40 +11053,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q114" t="str">
+      <c r="R114">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R114" t="str">
+      <c r="U114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148/123</v>
       </c>
-      <c r="S114" t="str">
+      <c r="V114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B432PF</v>
       </c>
-      <c r="T114" t="str">
+      <c r="W114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U114" t="str">
+      <c r="X114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B432PF</v>
       </c>
-      <c r="V114" t="str">
+      <c r="Y114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W114" t="str">
+      <c r="Z114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X114" t="str">
+      <c r="AA114" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -10484,40 +11128,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q115" t="str">
+      <c r="R115">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R115" t="str">
+      <c r="U115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>148/123</v>
       </c>
-      <c r="S115" t="str">
+      <c r="V115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B472PF</v>
       </c>
-      <c r="T115" t="str">
+      <c r="W115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Combo</v>
       </c>
-      <c r="U115" t="str">
+      <c r="X115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B472PF</v>
       </c>
-      <c r="V115" t="str">
+      <c r="Y115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W115" t="str">
+      <c r="Z115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X115" t="str">
+      <c r="AA115" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>486</v>
       </c>
@@ -10555,40 +11203,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q116" t="str">
+      <c r="R116">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R116" t="str">
+      <c r="U116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>131900001</v>
       </c>
-      <c r="S116" t="str">
+      <c r="V116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B472FV</v>
       </c>
-      <c r="T116" t="str">
+      <c r="W116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U116" t="str">
+      <c r="X116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B472FV</v>
       </c>
-      <c r="V116" t="str">
+      <c r="Y116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W116" t="str">
+      <c r="Z116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X116" t="str">
+      <c r="AA116" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>486</v>
       </c>
@@ -10626,40 +11278,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q117" t="str">
+      <c r="R117">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R117" t="str">
+      <c r="U117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>137210040</v>
       </c>
-      <c r="S117" t="str">
+      <c r="V117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B872</v>
       </c>
-      <c r="T117" t="str">
+      <c r="W117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U117" t="str">
+      <c r="X117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B872</v>
       </c>
-      <c r="V117" t="str">
+      <c r="Y117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W117" t="str">
+      <c r="Z117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>ADA</v>
       </c>
-      <c r="X117" t="str">
+      <c r="AA117" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>486</v>
       </c>
@@ -10697,40 +11353,44 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q118" t="str">
+      <c r="R118">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R118" t="str">
+      <c r="U118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>135010007</v>
       </c>
-      <c r="S118" t="str">
+      <c r="V118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B832</v>
       </c>
-      <c r="T118" t="str">
+      <c r="W118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U118" t="str">
+      <c r="X118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B832</v>
       </c>
-      <c r="V118" t="str">
+      <c r="Y118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W118" t="str">
+      <c r="Z118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X118" t="str">
+      <c r="AA118" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Elongated</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>486</v>
       </c>
@@ -10768,35 +11428,39 @@
         <f>IF(Tabla1[[#This Row],[Link]]&lt;&gt;"","Si","No")</f>
         <v>No</v>
       </c>
-      <c r="Q119" t="str">
+      <c r="R119">
+        <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
+        <v>0</v>
+      </c>
+      <c r="T119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Fabricante]])</f>
         <v>Western Pottery</v>
       </c>
-      <c r="R119" t="str">
+      <c r="U119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Homologo Mansfield]])</f>
         <v>130010007</v>
       </c>
-      <c r="S119" t="str">
+      <c r="V119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Sku]])</f>
         <v>B822</v>
       </c>
-      <c r="T119" t="str">
+      <c r="W119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Type]])</f>
         <v>Bowl</v>
       </c>
-      <c r="U119" t="str">
+      <c r="X119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Linea]])</f>
         <v>B822</v>
       </c>
-      <c r="V119" t="str">
+      <c r="Y119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Rough in]])</f>
         <v>12</v>
       </c>
-      <c r="W119" t="str">
+      <c r="Z119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Bowl Height]])</f>
         <v>Standard</v>
       </c>
-      <c r="X119" t="str">
+      <c r="AA119" t="str">
         <f>+TRIM(Tabla1[[#This Row],[Asiento]])</f>
         <v>Round front</v>
       </c>
@@ -10816,11 +11480,12 @@
     <hyperlink ref="L105" r:id="rId11" xr:uid="{869C5E77-F980-441E-A7E5-42CBE53A4BB2}"/>
     <hyperlink ref="L102" r:id="rId12" xr:uid="{9CB1390F-4FF2-445D-BB9A-AB61363812B4}"/>
     <hyperlink ref="L56" r:id="rId13" xr:uid="{0AFE1E8D-779B-438D-AC65-5850615194CE}"/>
+    <hyperlink ref="L58" r:id="rId14" xr:uid="{AEC5451F-5A1E-4948-AE4D-5A748A2071F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>